--- a/servis/wwwroot/Reports/report_psychologist.xlsx
+++ b/servis/wwwroot/Reports/report_psychologist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Список психологов</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>работаю с бар, прл</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Миронов</t>
+  </si>
+  <si>
+    <t>Арт-терапия</t>
+  </si>
+  <si>
+    <t>miron6@mail.ru</t>
+  </si>
+  <si>
+    <t>7199357483</t>
   </si>
 </sst>
 </file>
@@ -436,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -643,6 +658,38 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0">
+        <v>27</v>
+      </c>
+      <c r="G7" s="0">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>

--- a/servis/wwwroot/Reports/report_psychologist.xlsx
+++ b/servis/wwwroot/Reports/report_psychologist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Список психологов</t>
   </si>
@@ -77,10 +77,10 @@
     <t>Депрессия</t>
   </si>
   <si>
-    <t>email@mail.ru</t>
-  </si>
-  <si>
-    <t>7197357443</t>
+    <t>maria@mail.ru</t>
+  </si>
+  <si>
+    <t>79207363959</t>
   </si>
   <si>
     <t>Николай</t>
@@ -98,6 +98,12 @@
     <t>РПП</t>
   </si>
   <si>
+    <t>nick@mail.ru</t>
+  </si>
+  <si>
+    <t>71973574435</t>
+  </si>
+  <si>
     <t>Евгений</t>
   </si>
   <si>
@@ -107,6 +113,12 @@
     <t>работаю с аутистами</t>
   </si>
   <si>
+    <t>evgen@mail.ru</t>
+  </si>
+  <si>
+    <t>71973466437</t>
+  </si>
+  <si>
     <t>Маргарита</t>
   </si>
   <si>
@@ -114,6 +126,12 @@
   </si>
   <si>
     <t>работаю с бар, прл</t>
+  </si>
+  <si>
+    <t>margo@mail.ru</t>
+  </si>
+  <si>
+    <t>71973574437</t>
   </si>
   <si>
     <t>Никита</t>
@@ -582,10 +600,10 @@
         <v>23</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -596,16 +614,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0">
         <v>26</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0">
         <v>2800</v>
@@ -617,10 +635,10 @@
         <v>16</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +649,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0">
         <v>33</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0">
         <v>3400</v>
@@ -652,10 +670,10 @@
         <v>16</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -666,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E7" s="0">
         <v>27</v>
@@ -678,16 +696,16 @@
         <v>3000</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
